--- a/TechGear/techgear_sales_data_monthly.xlsx
+++ b/TechGear/techgear_sales_data_monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Documents\python&amp;libraries\TechGear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1455FDF9-1114-4332-89EB-2CCCACA66866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FF18C6-60E3-46F7-8787-5E6080D0864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14130" yWindow="90" windowWidth="10665" windowHeight="17385" xr2:uid="{E6784638-9682-49E6-82AC-8EE816A48970}"/>
+    <workbookView xWindow="15255" yWindow="3525" windowWidth="12480" windowHeight="15270" xr2:uid="{E6784638-9682-49E6-82AC-8EE816A48970}"/>
   </bookViews>
   <sheets>
     <sheet name="techgear_sales_data_monthly" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
